--- a/test_files/program/basic_cases.xlsx
+++ b/test_files/program/basic_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\unit_tester\test_files\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\minishell-tester\test_files\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C94C9-4A3F-4379-AA54-6E76A30B589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17414972-77C2-409C-AB01-8553888D4941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t xml:space="preserve">$&gt; </t>
   </si>
@@ -202,6 +202,39 @@
   </si>
   <si>
     <t>$&gt; Makefile</t>
+  </si>
+  <si>
+    <t>$&gt; pwd ls env</t>
+  </si>
+  <si>
+    <t>$&gt; pwd ls</t>
+  </si>
+  <si>
+    <t>$&gt; pwd pwd pwd</t>
+  </si>
+  <si>
+    <t>$&gt; pwd -- p</t>
+  </si>
+  <si>
+    <t>$&gt; pwd ---p</t>
+  </si>
+  <si>
+    <t>$&gt; pwd --p</t>
+  </si>
+  <si>
+    <t>$&gt; pwd -p</t>
+  </si>
+  <si>
+    <t>$&gt; pwd hola que tal</t>
+  </si>
+  <si>
+    <t>$&gt; pwd ./hola</t>
+  </si>
+  <si>
+    <t>$&gt; pwd hola</t>
+  </si>
+  <si>
+    <t>$&gt; pwd</t>
   </si>
 </sst>
 </file>
@@ -578,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -889,6 +922,61 @@
         <v>58</v>
       </c>
     </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/test_files/program/basic_cases.xlsx
+++ b/test_files/program/basic_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\minishell-tester\test_files\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell\minishell-tester\test_files\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17414972-77C2-409C-AB01-8553888D4941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD838C42-3085-49F8-80BE-B9D25626B61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,6 @@
     <t xml:space="preserve">$&gt;            </t>
   </si>
   <si>
-    <t>$&gt;\n</t>
-  </si>
-  <si>
-    <t>$&gt;\n \n \n \n \n</t>
-  </si>
-  <si>
-    <t>$&gt;\t</t>
-  </si>
-  <si>
-    <t>$&gt;\t\t\t\t\t\t \t\t\t</t>
-  </si>
-  <si>
     <t>$&gt; :</t>
   </si>
   <si>
@@ -235,6 +223,18 @@
   </si>
   <si>
     <t>$&gt; pwd</t>
+  </si>
+  <si>
+    <t>$&gt; \n</t>
+  </si>
+  <si>
+    <t>$&gt; \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>$&gt; \t</t>
+  </si>
+  <si>
+    <t>$&gt; \t\t\t\t\t\t \t\t\t</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -634,347 +634,347 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
